--- a/Datos_procesados/Capacida_embalses.xlsx
+++ b/Datos_procesados/Capacida_embalses.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Icaro.DESKTOP-8VQB1F3\Desktop\Data Analyst\Histórico del Clima\Github\Datos_procesados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53559328-ED0D-4639-80DA-9906BED75BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{419D98C3-D0D0-4D4A-9D29-421AA0FEFAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="1" r:id="rId1"/>
+    <sheet name="Capacida_embalses" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>año</t>
+    <t>Año</t>
   </si>
   <si>
-    <t>total_agua_total</t>
+    <t>Agua embalsada</t>
   </si>
   <si>
-    <t>total_agua_actual</t>
+    <t>Capacidad de los embalses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,8 +512,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -868,12 +869,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -892,388 +891,399 @@
       <c r="A2">
         <v>1988</v>
       </c>
-      <c r="B2">
-        <v>2216549</v>
-      </c>
-      <c r="C2">
-        <v>1319792</v>
+      <c r="B2" s="1">
+        <v>30046</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42788</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1989</v>
       </c>
-      <c r="B3">
-        <v>2229254</v>
-      </c>
-      <c r="C3">
-        <v>1009475</v>
+      <c r="B3" s="1">
+        <v>23416</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42794</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1990</v>
       </c>
-      <c r="B4">
-        <v>2500038</v>
-      </c>
-      <c r="C4">
-        <v>1322481</v>
+      <c r="B4" s="1">
+        <v>29393</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48678</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1991</v>
       </c>
-      <c r="B5">
-        <v>2580262</v>
-      </c>
-      <c r="C5">
-        <v>1271582</v>
+      <c r="B5" s="1">
+        <v>29081</v>
+      </c>
+      <c r="C5" s="1">
+        <v>48678</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1992</v>
       </c>
-      <c r="B6">
-        <v>2539021</v>
-      </c>
-      <c r="C6">
-        <v>1064804</v>
+      <c r="B6" s="1">
+        <v>22714</v>
+      </c>
+      <c r="C6" s="1">
+        <v>48767</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1993</v>
       </c>
-      <c r="B7">
-        <v>2546168</v>
-      </c>
-      <c r="C7">
-        <v>1081188</v>
+      <c r="B7" s="1">
+        <v>23715</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48952</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1994</v>
       </c>
-      <c r="B8">
-        <v>2649260</v>
-      </c>
-      <c r="C8">
-        <v>1147613</v>
+      <c r="B8" s="1">
+        <v>26520</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1995</v>
       </c>
-      <c r="B9">
-        <v>2660085</v>
-      </c>
-      <c r="C9">
-        <v>924835</v>
+      <c r="B9" s="1">
+        <v>19958</v>
+      </c>
+      <c r="C9" s="1">
+        <v>51095</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1996</v>
       </c>
-      <c r="B10">
-        <v>2730255</v>
-      </c>
-      <c r="C10">
-        <v>1674724</v>
+      <c r="B10" s="1">
+        <v>37040</v>
+      </c>
+      <c r="C10" s="1">
+        <v>51562</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1997</v>
       </c>
-      <c r="B11">
-        <v>2681109</v>
-      </c>
-      <c r="C11">
-        <v>1854301</v>
+      <c r="B11" s="1">
+        <v>37173</v>
+      </c>
+      <c r="C11" s="1">
+        <v>51559</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
-      <c r="B12">
-        <v>2679844</v>
-      </c>
-      <c r="C12">
-        <v>1903714</v>
+      <c r="B12" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C12" s="1">
+        <v>51564</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1999</v>
       </c>
-      <c r="B13">
-        <v>2747950</v>
-      </c>
-      <c r="C13">
-        <v>1500938</v>
+      <c r="B13" s="1">
+        <v>32781</v>
+      </c>
+      <c r="C13" s="1">
+        <v>53069</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
-      <c r="B14">
-        <v>2761953</v>
-      </c>
-      <c r="C14">
-        <v>1461570</v>
+      <c r="B14" s="1">
+        <v>34499</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53069</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
-      <c r="B15">
-        <v>2765915</v>
-      </c>
-      <c r="C15">
-        <v>1831732</v>
+      <c r="B15" s="1">
+        <v>40753</v>
+      </c>
+      <c r="C15" s="1">
+        <v>53191</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
-      <c r="B16">
-        <v>2820424</v>
-      </c>
-      <c r="C16">
-        <v>1543162</v>
+      <c r="B16" s="1">
+        <v>32964</v>
+      </c>
+      <c r="C16" s="1">
+        <v>53224</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2003</v>
       </c>
-      <c r="B17">
-        <v>2767147</v>
-      </c>
-      <c r="C17">
-        <v>1881948</v>
+      <c r="B17" s="1">
+        <v>40921</v>
+      </c>
+      <c r="C17" s="1">
+        <v>53246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2004</v>
       </c>
-      <c r="B18">
-        <v>2766296</v>
-      </c>
-      <c r="C18">
-        <v>1840833</v>
+      <c r="B18" s="1">
+        <v>40704</v>
+      </c>
+      <c r="C18" s="1">
+        <v>53198</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
-      <c r="B19">
-        <v>2767283</v>
-      </c>
-      <c r="C19">
-        <v>1412236</v>
+      <c r="B19" s="1">
+        <v>31016</v>
+      </c>
+      <c r="C19" s="1">
+        <v>53198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
-      <c r="B20">
-        <v>2780791</v>
-      </c>
-      <c r="C20">
-        <v>1385960</v>
+      <c r="B20" s="1">
+        <v>30103</v>
+      </c>
+      <c r="C20" s="1">
+        <v>53252</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
-      <c r="B21">
-        <v>2815703</v>
-      </c>
-      <c r="C21">
-        <v>1535082</v>
+      <c r="B21" s="1">
+        <v>35395</v>
+      </c>
+      <c r="C21" s="1">
+        <v>54148</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2008</v>
       </c>
-      <c r="B22">
-        <v>2876748</v>
-      </c>
-      <c r="C22">
-        <v>1396470</v>
+      <c r="B22" s="1">
+        <v>32187</v>
+      </c>
+      <c r="C22" s="1">
+        <v>54308</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
-      <c r="B23">
-        <v>2827658</v>
-      </c>
-      <c r="C23">
-        <v>1467742</v>
+      <c r="B23" s="1">
+        <v>32722</v>
+      </c>
+      <c r="C23" s="1">
+        <v>54364</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
-      <c r="B24">
-        <v>2886546</v>
-      </c>
-      <c r="C24">
-        <v>2133127</v>
+      <c r="B24" s="1">
+        <v>46114</v>
+      </c>
+      <c r="C24" s="1">
+        <v>55581</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
-      <c r="B25">
-        <v>2890668</v>
-      </c>
-      <c r="C25">
-        <v>2094812</v>
+      <c r="B25" s="1">
+        <v>45030</v>
+      </c>
+      <c r="C25" s="1">
+        <v>55590</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
-      <c r="B26">
-        <v>2885160</v>
-      </c>
-      <c r="C26">
-        <v>1651542</v>
+      <c r="B26" s="1">
+        <v>36755</v>
+      </c>
+      <c r="C26" s="1">
+        <v>55590</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
-      <c r="B27">
-        <v>2932560</v>
-      </c>
-      <c r="C27">
-        <v>2133181</v>
+      <c r="B27" s="1">
+        <v>47306</v>
+      </c>
+      <c r="C27" s="1">
+        <v>55326</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2014</v>
       </c>
-      <c r="B28">
-        <v>2886078</v>
-      </c>
-      <c r="C28">
-        <v>2143628</v>
+      <c r="B28" s="1">
+        <v>45431</v>
+      </c>
+      <c r="C28" s="1">
+        <v>55343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
-      <c r="B29">
-        <v>2910804</v>
-      </c>
-      <c r="C29">
-        <v>1948370</v>
+      <c r="B29" s="1">
+        <v>41745</v>
+      </c>
+      <c r="C29" s="1">
+        <v>55977</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
-      <c r="B30">
-        <v>2910820</v>
-      </c>
-      <c r="C30">
-        <v>1806698</v>
+      <c r="B30" s="1">
+        <v>41702</v>
+      </c>
+      <c r="C30" s="1">
+        <v>55977</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
-      <c r="B31">
-        <v>2912006</v>
-      </c>
-      <c r="C31">
-        <v>1420371</v>
+      <c r="B31" s="1">
+        <v>31618</v>
+      </c>
+      <c r="C31" s="1">
+        <v>55973</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
-      <c r="B32">
-        <v>2915857</v>
-      </c>
-      <c r="C32">
-        <v>1692301</v>
+      <c r="B32" s="1">
+        <v>40591</v>
+      </c>
+      <c r="C32" s="1">
+        <v>56074</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
-      <c r="B33">
-        <v>2970124</v>
-      </c>
-      <c r="C33">
-        <v>1549704</v>
+      <c r="B33" s="1">
+        <v>33587</v>
+      </c>
+      <c r="C33" s="1">
+        <v>56118</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
-      <c r="B34">
-        <v>2895945</v>
-      </c>
-      <c r="C34">
-        <v>1632838</v>
+      <c r="B34" s="1">
+        <v>36806</v>
+      </c>
+      <c r="C34" s="1">
+        <v>55622</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
-      <c r="B35">
-        <v>2909829</v>
-      </c>
-      <c r="C35">
-        <v>1493342</v>
+      <c r="B35" s="1">
+        <v>33098</v>
+      </c>
+      <c r="C35" s="1">
+        <v>55899</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
-      <c r="B36">
-        <v>2918163</v>
-      </c>
-      <c r="C36">
-        <v>1214115</v>
+      <c r="B36" s="1">
+        <v>27489</v>
+      </c>
+      <c r="C36" s="1">
+        <v>56136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="1">
+        <v>26588</v>
+      </c>
+      <c r="C37" s="1">
+        <v>56069</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>